--- a/Elektor-Labs-Preferred-Parts-(ELPP)-THT-v1.4.xlsx
+++ b/Elektor-Labs-Preferred-Parts-(ELPP)-THT-v1.4.xlsx
@@ -79,9 +79,6 @@
     <t>T</t>
   </si>
   <si>
-    <t>BC557CZL1G</t>
-  </si>
-  <si>
     <t>ON Semiconductor</t>
   </si>
   <si>
@@ -4362,6 +4359,9 @@
   </si>
   <si>
     <t>860-4063</t>
+  </si>
+  <si>
+    <t>BC557CG</t>
   </si>
 </sst>
 </file>
@@ -4920,8 +4920,8 @@
   </sheetPr>
   <dimension ref="A1:L355"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="C202" sqref="C202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4942,7 +4942,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -4995,13 +4995,13 @@
     </row>
     <row r="4" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4" s="10" t="str">
         <f t="shared" si="0"/>
@@ -5010,25 +5010,25 @@
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" s="2">
         <v>9411674</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K5" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5037,25 +5037,25 @@
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="2">
         <v>9411690</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="K6" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5064,25 +5064,25 @@
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="2">
         <v>9411747</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="K7" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5091,25 +5091,25 @@
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" s="2">
         <v>9411771</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="K8" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5118,25 +5118,25 @@
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="2">
         <v>1216423</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K9" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5145,25 +5145,25 @@
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="2">
         <v>1100379</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K10" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5172,25 +5172,25 @@
     </row>
     <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" s="2">
         <v>1216435</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K11" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5199,25 +5199,25 @@
     </row>
     <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="2">
         <v>1216426</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K12" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5226,25 +5226,25 @@
     </row>
     <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="2">
         <v>1216437</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5253,25 +5253,25 @@
     </row>
     <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" s="2">
         <v>1216440</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K14" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5280,25 +5280,25 @@
     </row>
     <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" s="2">
         <v>1216441</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K15" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5307,25 +5307,25 @@
     </row>
     <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16" s="2">
         <v>1216448</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K16" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5334,25 +5334,25 @@
     </row>
     <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G17" s="2">
         <v>1216443</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K17" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5364,13 +5364,13 @@
     </row>
     <row r="19" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K19" s="10" t="str">
         <f t="shared" ref="K19:K25" si="1">CONCATENATE(CONCATENATE($E19,IF(ISBLANK($E19),""," = "),$A19),IF(ISBLANK($J19),"",", "),$J19)</f>
@@ -5379,25 +5379,25 @@
     </row>
     <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" s="2">
         <v>1902204</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="str">
         <f t="shared" si="1"/>
@@ -5406,25 +5406,25 @@
     </row>
     <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G21" s="2">
         <v>1902218</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K21" s="7" t="str">
         <f t="shared" si="1"/>
@@ -5433,25 +5433,25 @@
     </row>
     <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G22" s="2">
         <v>1902221</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K22" s="7" t="str">
         <f t="shared" si="1"/>
@@ -5460,25 +5460,25 @@
     </row>
     <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G23" s="2">
         <v>1166427</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K23" s="7" t="str">
         <f t="shared" si="1"/>
@@ -5487,25 +5487,25 @@
     </row>
     <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G24" s="2">
         <v>1166432</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K24" s="7" t="str">
         <f t="shared" si="1"/>
@@ -5514,25 +5514,25 @@
     </row>
     <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G25" s="2">
         <v>1166439</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K25" s="7" t="str">
         <f t="shared" si="1"/>
@@ -5544,13 +5544,13 @@
     </row>
     <row r="27" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K27" s="10" t="str">
         <f t="shared" ref="K27:K65" si="2">CONCATENATE(CONCATENATE($E27,IF(ISBLANK($E27),""," = "),$A27),IF(ISBLANK($J27),"",", "),$J27)</f>
@@ -5559,25 +5559,25 @@
     </row>
     <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G28" s="2">
         <v>9451340</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K28" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5586,25 +5586,25 @@
     </row>
     <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G29" s="2">
         <v>9451358</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K29" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5613,25 +5613,25 @@
     </row>
     <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G30" s="2">
         <v>9451366</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K30" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5640,25 +5640,25 @@
     </row>
     <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G31" s="2">
         <v>9451374</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K31" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5667,25 +5667,25 @@
     </row>
     <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G32" s="2">
         <v>9451382</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K32" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5694,25 +5694,25 @@
     </row>
     <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G33" s="2">
         <v>9451390</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K33" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5721,25 +5721,25 @@
     </row>
     <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="D34" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G34" s="2">
         <v>9451404</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K34" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5748,25 +5748,25 @@
     </row>
     <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G35" s="2">
         <v>9451412</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K35" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5775,25 +5775,25 @@
     </row>
     <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G36" s="2">
         <v>9451420</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K36" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5802,25 +5802,25 @@
     </row>
     <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G37" s="2">
         <v>9451439</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K37" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5829,25 +5829,25 @@
     </row>
     <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G38" s="2">
         <v>9451447</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K38" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5856,25 +5856,25 @@
     </row>
     <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G39" s="2">
         <v>1902901</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K39" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5883,25 +5883,25 @@
     </row>
     <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G40" s="2">
         <v>1902903</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K40" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5916,13 +5916,13 @@
     </row>
     <row r="42" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K42" s="10" t="str">
         <f t="shared" si="2"/>
@@ -5931,25 +5931,25 @@
     </row>
     <row r="43" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="G43" s="2">
         <v>1081177</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K43" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5958,25 +5958,25 @@
     </row>
     <row r="44" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G44" s="2">
         <v>1467514</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K44" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5985,25 +5985,25 @@
     </row>
     <row r="45" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G45" s="2">
         <v>1651065</v>
       </c>
       <c r="I45" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K45" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6019,13 +6019,13 @@
     </row>
     <row r="47" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K47" s="10" t="str">
         <f t="shared" si="2"/>
@@ -6034,25 +6034,25 @@
     </row>
     <row r="48" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G48" s="2">
         <v>1612329</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K48" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6061,25 +6061,25 @@
     </row>
     <row r="49" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G49" s="2">
         <v>9801197</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K49" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6088,25 +6088,25 @@
     </row>
     <row r="50" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G50" s="2">
         <v>9381406</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K50" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6122,13 +6122,13 @@
     </row>
     <row r="52" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K52" s="10" t="str">
         <f t="shared" si="2"/>
@@ -6137,25 +6137,25 @@
     </row>
     <row r="53" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G53" s="2">
         <v>1700785</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K53" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6164,25 +6164,25 @@
     </row>
     <row r="54" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G54" s="2">
         <v>1779206</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K54" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6191,25 +6191,25 @@
     </row>
     <row r="55" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G55" s="2">
         <v>1779202</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K55" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6218,25 +6218,25 @@
     </row>
     <row r="56" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G56" s="2">
         <v>1779204</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K56" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6245,25 +6245,25 @@
     </row>
     <row r="57" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G57" s="2">
         <v>1779207</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K57" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6279,13 +6279,13 @@
     </row>
     <row r="59" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K59" s="10" t="str">
         <f t="shared" si="2"/>
@@ -6294,25 +6294,25 @@
     </row>
     <row r="60" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G60" s="2">
         <v>1581122</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K60" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6321,25 +6321,25 @@
     </row>
     <row r="61" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G61" s="2">
         <v>1581123</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K61" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6348,25 +6348,25 @@
     </row>
     <row r="62" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G62" s="2">
         <v>1581124</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K62" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6375,25 +6375,25 @@
     </row>
     <row r="63" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G63" s="2">
         <v>1581174</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K63" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6402,25 +6402,25 @@
     </row>
     <row r="64" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C64" t="s">
         <v>297</v>
       </c>
-      <c r="C64" t="s">
-        <v>298</v>
-      </c>
       <c r="D64" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G64" s="2">
         <v>1855545</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K64" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6429,25 +6429,25 @@
     </row>
     <row r="65" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G65" s="2">
         <v>1328299</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K65" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6459,7 +6459,7 @@
     </row>
     <row r="67" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -6472,26 +6472,26 @@
     </row>
     <row r="68" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="D68" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G68" s="27" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H68" s="20"/>
       <c r="I68" s="20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K68" s="7" t="str">
         <f t="shared" si="3"/>
@@ -6500,26 +6500,26 @@
     </row>
     <row r="69" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="23" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G69" s="27" t="s">
         <v>773</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G69" s="27" t="s">
-        <v>774</v>
       </c>
       <c r="H69" s="20"/>
       <c r="I69" s="20" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="K69" s="7" t="str">
         <f t="shared" si="3"/>
@@ -6528,25 +6528,25 @@
     </row>
     <row r="70" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="G70" s="2">
         <v>2314214</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K70" s="7" t="str">
         <f t="shared" si="3"/>
@@ -6555,25 +6555,25 @@
     </row>
     <row r="71" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="19" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G71" s="2">
         <v>2314218</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K71" s="7" t="str">
         <f t="shared" si="3"/>
@@ -6595,7 +6595,7 @@
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K73" s="10" t="str">
         <f t="shared" si="3"/>
@@ -6604,19 +6604,19 @@
     </row>
     <row r="74" spans="1:12" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="19" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B74" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>870</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>871</v>
-      </c>
       <c r="D74" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F74" s="6"/>
       <c r="G74" s="6">
@@ -6624,7 +6624,7 @@
       </c>
       <c r="H74" s="6"/>
       <c r="I74" s="6" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J74" s="6"/>
       <c r="K74" s="29" t="str">
@@ -6635,19 +6635,19 @@
     </row>
     <row r="75" spans="1:12" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F75" s="6"/>
       <c r="G75" s="6">
@@ -6655,7 +6655,7 @@
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="6" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="J75" s="6"/>
       <c r="K75" s="29"/>
@@ -6663,25 +6663,25 @@
     </row>
     <row r="76" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>467</v>
-      </c>
       <c r="D76" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G76" s="2">
         <v>2082537</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K76" s="7" t="str">
         <f t="shared" si="3"/>
@@ -6693,13 +6693,13 @@
     </row>
     <row r="78" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K78" s="10" t="str">
         <f t="shared" ref="K78:K109" si="4">CONCATENATE(CONCATENATE($E78,IF(ISBLANK($E78),""," = "),$A78),IF(ISBLANK($J78),"",", "),$J78)</f>
@@ -6708,25 +6708,25 @@
     </row>
     <row r="79" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G79" s="2">
         <v>1328375</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K79" s="7" t="str">
         <f t="shared" si="4"/>
@@ -6735,25 +6735,25 @@
     </row>
     <row r="80" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G80" s="2">
         <v>1652511</v>
       </c>
       <c r="I80" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K80" s="7" t="str">
         <f t="shared" si="4"/>
@@ -6762,25 +6762,25 @@
     </row>
     <row r="81" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C81" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G81" s="2">
         <v>1021367</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K81" s="7" t="str">
         <f t="shared" si="4"/>
@@ -6811,16 +6811,16 @@
     </row>
     <row r="84" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>12</v>
@@ -6829,7 +6829,7 @@
         <v>9339027</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="K84" s="7" t="str">
         <f t="shared" si="4"/>
@@ -6838,16 +6838,16 @@
     </row>
     <row r="85" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>12</v>
@@ -6856,7 +6856,7 @@
         <v>9339094</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="K85" s="7" t="str">
         <f t="shared" si="4"/>
@@ -6865,16 +6865,16 @@
     </row>
     <row r="86" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>12</v>
@@ -6883,7 +6883,7 @@
         <v>9339159</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K86" s="7" t="str">
         <f t="shared" si="4"/>
@@ -6892,16 +6892,16 @@
     </row>
     <row r="87" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>12</v>
@@ -6910,7 +6910,7 @@
         <v>9339213</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K87" s="7" t="str">
         <f t="shared" si="4"/>
@@ -6919,16 +6919,16 @@
     </row>
     <row r="88" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="19" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>12</v>
@@ -6937,7 +6937,7 @@
         <v>9339272</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K88" s="7" t="str">
         <f t="shared" si="4"/>
@@ -6946,16 +6946,16 @@
     </row>
     <row r="89" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="19" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>12</v>
@@ -6964,7 +6964,7 @@
         <v>9339337</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="K89" s="7" t="str">
         <f t="shared" si="4"/>
@@ -6973,16 +6973,16 @@
     </row>
     <row r="90" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="19" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>12</v>
@@ -6991,7 +6991,7 @@
         <v>9339396</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="K90" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7000,16 +7000,16 @@
     </row>
     <row r="91" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="19" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>12</v>
@@ -7018,7 +7018,7 @@
         <v>9339450</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K91" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7027,16 +7027,16 @@
     </row>
     <row r="92" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="19" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C92" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>12</v>
@@ -7045,7 +7045,7 @@
         <v>9339515</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K92" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7054,16 +7054,16 @@
     </row>
     <row r="93" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="19" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C93" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>12</v>
@@ -7072,7 +7072,7 @@
         <v>9339574</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K93" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7081,16 +7081,16 @@
     </row>
     <row r="94" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="19" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>12</v>
@@ -7099,7 +7099,7 @@
         <v>9339639</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K94" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7108,16 +7108,16 @@
     </row>
     <row r="95" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="19" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>12</v>
@@ -7126,7 +7126,7 @@
         <v>9339698</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="K95" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7135,16 +7135,16 @@
     </row>
     <row r="96" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="19" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>12</v>
@@ -7153,7 +7153,7 @@
         <v>9339752</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="K96" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7162,16 +7162,16 @@
     </row>
     <row r="97" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="19" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>12</v>
@@ -7180,7 +7180,7 @@
         <v>9339035</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="K97" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7189,16 +7189,16 @@
     </row>
     <row r="98" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="19" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>12</v>
@@ -7207,7 +7207,7 @@
         <v>9339108</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="K98" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7216,16 +7216,16 @@
     </row>
     <row r="99" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="19" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C99" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>12</v>
@@ -7234,7 +7234,7 @@
         <v>9339167</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K99" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7243,16 +7243,16 @@
     </row>
     <row r="100" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="19" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C100" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>12</v>
@@ -7261,7 +7261,7 @@
         <v>9339221</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="K100" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7270,16 +7270,16 @@
     </row>
     <row r="101" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="19" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>12</v>
@@ -7288,7 +7288,7 @@
         <v>9339280</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K101" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7297,16 +7297,16 @@
     </row>
     <row r="102" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="19" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>12</v>
@@ -7315,7 +7315,7 @@
         <v>9339345</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="K102" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7324,16 +7324,16 @@
     </row>
     <row r="103" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="19" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C103" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>12</v>
@@ -7342,7 +7342,7 @@
         <v>9339400</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="K103" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7351,16 +7351,16 @@
     </row>
     <row r="104" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="19" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C104" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>12</v>
@@ -7369,7 +7369,7 @@
         <v>9339469</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K104" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7378,16 +7378,16 @@
     </row>
     <row r="105" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="19" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C105" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>12</v>
@@ -7396,7 +7396,7 @@
         <v>9339523</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="K105" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7405,16 +7405,16 @@
     </row>
     <row r="106" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="19" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>12</v>
@@ -7423,7 +7423,7 @@
         <v>9339582</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K106" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7432,16 +7432,16 @@
     </row>
     <row r="107" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="19" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C107" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>12</v>
@@ -7450,7 +7450,7 @@
         <v>9339647</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K107" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7459,16 +7459,16 @@
     </row>
     <row r="108" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="19" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C108" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>12</v>
@@ -7477,7 +7477,7 @@
         <v>9339701</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="K108" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7486,16 +7486,16 @@
     </row>
     <row r="109" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="19" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C109" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>12</v>
@@ -7504,7 +7504,7 @@
         <v>9339043</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K109" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7513,16 +7513,16 @@
     </row>
     <row r="110" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="19" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C110" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>12</v>
@@ -7531,7 +7531,7 @@
         <v>9339116</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K110" s="7" t="str">
         <f t="shared" ref="K110:K141" si="5">CONCATENATE(CONCATENATE($E110,IF(ISBLANK($E110),""," = "),$A110),IF(ISBLANK($J110),"",", "),$J110)</f>
@@ -7540,16 +7540,16 @@
     </row>
     <row r="111" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C111" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>12</v>
@@ -7558,7 +7558,7 @@
         <v>9339175</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K111" s="7" t="str">
         <f t="shared" si="5"/>
@@ -7567,16 +7567,16 @@
     </row>
     <row r="112" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="19" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C112" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>12</v>
@@ -7585,7 +7585,7 @@
         <v>9339230</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K112" s="7" t="str">
         <f t="shared" si="5"/>
@@ -7594,16 +7594,16 @@
     </row>
     <row r="113" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="19" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C113" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>12</v>
@@ -7612,7 +7612,7 @@
         <v>9339299</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K113" s="7" t="str">
         <f t="shared" si="5"/>
@@ -7621,16 +7621,16 @@
     </row>
     <row r="114" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="19" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C114" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>12</v>
@@ -7639,7 +7639,7 @@
         <v>9339353</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="K114" s="7" t="str">
         <f t="shared" si="5"/>
@@ -7648,16 +7648,16 @@
     </row>
     <row r="115" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C115" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>12</v>
@@ -7666,7 +7666,7 @@
         <v>9339418</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K115" s="7" t="str">
         <f t="shared" si="5"/>
@@ -7675,16 +7675,16 @@
     </row>
     <row r="116" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C116" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>12</v>
@@ -7693,7 +7693,7 @@
         <v>9339477</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="K116" s="7" t="str">
         <f t="shared" si="5"/>
@@ -7702,16 +7702,16 @@
     </row>
     <row r="117" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="19" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C117" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>12</v>
@@ -7720,7 +7720,7 @@
         <v>9339531</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K117" s="7" t="str">
         <f t="shared" si="5"/>
@@ -7729,16 +7729,16 @@
     </row>
     <row r="118" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="19" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C118" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>12</v>
@@ -7747,7 +7747,7 @@
         <v>9339590</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="K118" s="7" t="str">
         <f t="shared" si="5"/>
@@ -7756,16 +7756,16 @@
     </row>
     <row r="119" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="19" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C119" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>12</v>
@@ -7774,7 +7774,7 @@
         <v>9339655</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K119" s="7" t="str">
         <f t="shared" si="5"/>
@@ -7783,16 +7783,16 @@
     </row>
     <row r="120" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="19" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C120" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>12</v>
@@ -7801,7 +7801,7 @@
         <v>9339710</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K120" s="7" t="str">
         <f t="shared" si="5"/>
@@ -7810,16 +7810,16 @@
     </row>
     <row r="121" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="19" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C121" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>12</v>
@@ -7828,7 +7828,7 @@
         <v>9339051</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K121" s="7" t="str">
         <f t="shared" si="5"/>
@@ -7837,16 +7837,16 @@
     </row>
     <row r="122" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="19" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C122" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>12</v>
@@ -7855,7 +7855,7 @@
         <v>9339124</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K122" s="7" t="str">
         <f t="shared" si="5"/>
@@ -7864,16 +7864,16 @@
     </row>
     <row r="123" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="19" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C123" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>12</v>
@@ -7882,7 +7882,7 @@
         <v>9339183</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K123" s="7" t="str">
         <f t="shared" si="5"/>
@@ -7891,16 +7891,16 @@
     </row>
     <row r="124" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="19" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C124" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>12</v>
@@ -7909,7 +7909,7 @@
         <v>9339248</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K124" s="7" t="str">
         <f t="shared" si="5"/>
@@ -7918,16 +7918,16 @@
     </row>
     <row r="125" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="19" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C125" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>12</v>
@@ -7936,7 +7936,7 @@
         <v>9339302</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K125" s="7" t="str">
         <f t="shared" si="5"/>
@@ -7945,16 +7945,16 @@
     </row>
     <row r="126" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="19" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C126" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>12</v>
@@ -7963,7 +7963,7 @@
         <v>9339361</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K126" s="7" t="str">
         <f t="shared" si="5"/>
@@ -7972,16 +7972,16 @@
     </row>
     <row r="127" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="19" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C127" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>12</v>
@@ -7990,7 +7990,7 @@
         <v>9339426</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K127" s="7" t="str">
         <f t="shared" si="5"/>
@@ -7999,16 +7999,16 @@
     </row>
     <row r="128" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="19" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C128" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>12</v>
@@ -8017,7 +8017,7 @@
         <v>9339485</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="K128" s="7" t="str">
         <f t="shared" si="5"/>
@@ -8026,16 +8026,16 @@
     </row>
     <row r="129" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="19" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C129" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>12</v>
@@ -8044,7 +8044,7 @@
         <v>9339540</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="K129" s="7" t="str">
         <f t="shared" si="5"/>
@@ -8053,16 +8053,16 @@
     </row>
     <row r="130" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="19" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C130" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>12</v>
@@ -8071,7 +8071,7 @@
         <v>9339604</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="K130" s="7" t="str">
         <f t="shared" si="5"/>
@@ -8080,16 +8080,16 @@
     </row>
     <row r="131" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C131" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>12</v>
@@ -8098,7 +8098,7 @@
         <v>9339663</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K131" s="7" t="str">
         <f t="shared" si="5"/>
@@ -8107,16 +8107,16 @@
     </row>
     <row r="132" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="19" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C132" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>12</v>
@@ -8125,7 +8125,7 @@
         <v>9339728</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="K132" s="7" t="str">
         <f t="shared" si="5"/>
@@ -8134,16 +8134,16 @@
     </row>
     <row r="133" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="19" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C133" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>12</v>
@@ -8152,7 +8152,7 @@
         <v>9339060</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="K133" s="7" t="str">
         <f t="shared" si="5"/>
@@ -8161,16 +8161,16 @@
     </row>
     <row r="134" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="19" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C134" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>12</v>
@@ -8179,7 +8179,7 @@
         <v>9339132</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="K134" s="7" t="str">
         <f t="shared" si="5"/>
@@ -8188,16 +8188,16 @@
     </row>
     <row r="135" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="19" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C135" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>12</v>
@@ -8206,7 +8206,7 @@
         <v>9339191</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="K135" s="7" t="str">
         <f t="shared" si="5"/>
@@ -8215,16 +8215,16 @@
     </row>
     <row r="136" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="19" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C136" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>12</v>
@@ -8233,7 +8233,7 @@
         <v>9339256</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="K136" s="7" t="str">
         <f t="shared" si="5"/>
@@ -8242,16 +8242,16 @@
     </row>
     <row r="137" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="19" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C137" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>12</v>
@@ -8260,7 +8260,7 @@
         <v>9339310</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="K137" s="7" t="str">
         <f t="shared" si="5"/>
@@ -8269,16 +8269,16 @@
     </row>
     <row r="138" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="19" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C138" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>12</v>
@@ -8287,7 +8287,7 @@
         <v>9339370</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="K138" s="7" t="str">
         <f t="shared" si="5"/>
@@ -8296,16 +8296,16 @@
     </row>
     <row r="139" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="19" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C139" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>12</v>
@@ -8314,7 +8314,7 @@
         <v>9339434</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="K139" s="7" t="str">
         <f t="shared" si="5"/>
@@ -8323,16 +8323,16 @@
     </row>
     <row r="140" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="19" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C140" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>12</v>
@@ -8341,7 +8341,7 @@
         <v>9339493</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="K140" s="7" t="str">
         <f t="shared" si="5"/>
@@ -8350,16 +8350,16 @@
     </row>
     <row r="141" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="19" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C141" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>12</v>
@@ -8368,7 +8368,7 @@
         <v>9339558</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="K141" s="7" t="str">
         <f t="shared" si="5"/>
@@ -8377,16 +8377,16 @@
     </row>
     <row r="142" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="19" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C142" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>12</v>
@@ -8395,7 +8395,7 @@
         <v>9339612</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="K142" s="7" t="str">
         <f t="shared" ref="K142:K177" si="6">CONCATENATE(CONCATENATE($E142,IF(ISBLANK($E142),""," = "),$A142),IF(ISBLANK($J142),"",", "),$J142)</f>
@@ -8404,16 +8404,16 @@
     </row>
     <row r="143" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="19" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C143" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>12</v>
@@ -8422,7 +8422,7 @@
         <v>9339671</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="K143" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8431,16 +8431,16 @@
     </row>
     <row r="144" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="19" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C144" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>12</v>
@@ -8449,7 +8449,7 @@
         <v>9339736</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K144" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8458,16 +8458,16 @@
     </row>
     <row r="145" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="19" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C145" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>12</v>
@@ -8476,7 +8476,7 @@
         <v>9339078</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="K145" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8485,16 +8485,16 @@
     </row>
     <row r="146" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="19" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C146" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>12</v>
@@ -8503,7 +8503,7 @@
         <v>9339140</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="K146" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8512,16 +8512,16 @@
     </row>
     <row r="147" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="19" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C147" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>12</v>
@@ -8530,7 +8530,7 @@
         <v>9339205</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="K147" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8539,16 +8539,16 @@
     </row>
     <row r="148" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="19" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C148" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>12</v>
@@ -8557,7 +8557,7 @@
         <v>9339264</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="K148" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8566,16 +8566,16 @@
     </row>
     <row r="149" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="19" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C149" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>12</v>
@@ -8584,7 +8584,7 @@
         <v>9339329</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K149" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8593,16 +8593,16 @@
     </row>
     <row r="150" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="19" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C150" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>12</v>
@@ -8611,7 +8611,7 @@
         <v>9339388</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K150" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8620,16 +8620,16 @@
     </row>
     <row r="151" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="19" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C151" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>12</v>
@@ -8638,7 +8638,7 @@
         <v>9339442</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="K151" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8647,16 +8647,16 @@
     </row>
     <row r="152" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="19" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C152" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>12</v>
@@ -8665,7 +8665,7 @@
         <v>9339507</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="K152" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8674,16 +8674,16 @@
     </row>
     <row r="153" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="19" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C153" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>12</v>
@@ -8692,7 +8692,7 @@
         <v>9339566</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K153" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8701,16 +8701,16 @@
     </row>
     <row r="154" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="19" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C154" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>12</v>
@@ -8719,7 +8719,7 @@
         <v>9339620</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="K154" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8728,16 +8728,16 @@
     </row>
     <row r="155" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="19" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C155" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>12</v>
@@ -8746,7 +8746,7 @@
         <v>9339680</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="K155" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8755,16 +8755,16 @@
     </row>
     <row r="156" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="19" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C156" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>12</v>
@@ -8773,7 +8773,7 @@
         <v>9339744</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="K156" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8782,16 +8782,16 @@
     </row>
     <row r="157" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="19" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C157" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>12</v>
@@ -8800,7 +8800,7 @@
         <v>9339086</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K157" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8809,16 +8809,16 @@
     </row>
     <row r="158" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A158" s="19" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C158" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>12</v>
@@ -8827,7 +8827,7 @@
         <v>1186236</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K158" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8836,16 +8836,16 @@
     </row>
     <row r="159" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A159" s="19" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C159" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>12</v>
@@ -8854,7 +8854,7 @@
         <v>1186237</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="K159" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8863,16 +8863,16 @@
     </row>
     <row r="160" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A160" s="19" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C160" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>12</v>
@@ -8881,7 +8881,7 @@
         <v>1186238</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K160" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8890,16 +8890,16 @@
     </row>
     <row r="161" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A161" s="19" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C161" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>12</v>
@@ -8908,7 +8908,7 @@
         <v>1186239</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K161" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8917,16 +8917,16 @@
     </row>
     <row r="162" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A162" s="19" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C162" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>12</v>
@@ -8935,7 +8935,7 @@
         <v>1186240</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="K162" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8944,16 +8944,16 @@
     </row>
     <row r="163" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A163" s="19" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C163" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>12</v>
@@ -8962,7 +8962,7 @@
         <v>1186241</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K163" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8971,16 +8971,16 @@
     </row>
     <row r="164" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A164" s="19" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C164" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>12</v>
@@ -8989,7 +8989,7 @@
         <v>1186242</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K164" s="7" t="str">
         <f t="shared" si="6"/>
@@ -8998,16 +8998,16 @@
     </row>
     <row r="165" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A165" s="19" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C165" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>12</v>
@@ -9016,7 +9016,7 @@
         <v>1186244</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K165" s="7" t="str">
         <f t="shared" si="6"/>
@@ -9025,16 +9025,16 @@
     </row>
     <row r="166" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A166" s="19" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C166" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>12</v>
@@ -9043,7 +9043,7 @@
         <v>1186245</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K166" s="7" t="str">
         <f t="shared" si="6"/>
@@ -9052,16 +9052,16 @@
     </row>
     <row r="167" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A167" s="19" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C167" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>12</v>
@@ -9070,7 +9070,7 @@
         <v>1186246</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="K167" s="7" t="str">
         <f t="shared" si="6"/>
@@ -9079,16 +9079,16 @@
     </row>
     <row r="168" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="19" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C168" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>12</v>
@@ -9097,7 +9097,7 @@
         <v>1186247</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="K168" s="7" t="str">
         <f t="shared" si="6"/>
@@ -9106,16 +9106,16 @@
     </row>
     <row r="169" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A169" s="19" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C169" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>12</v>
@@ -9124,7 +9124,7 @@
         <v>1186248</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="K169" s="7" t="str">
         <f t="shared" si="6"/>
@@ -9139,13 +9139,13 @@
     </row>
     <row r="171" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A171" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
       <c r="D171" s="8"/>
       <c r="E171" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K171" s="10" t="str">
         <f t="shared" si="6"/>
@@ -9154,25 +9154,25 @@
     </row>
     <row r="172" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A172" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B172" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="D172" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G172" s="2">
         <v>1564884</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K172" s="7" t="str">
         <f t="shared" si="6"/>
@@ -9181,25 +9181,25 @@
     </row>
     <row r="173" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A173" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G173" s="2">
         <v>2295980</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K173" s="7" t="str">
         <f t="shared" si="6"/>
@@ -9208,25 +9208,25 @@
     </row>
     <row r="174" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A174" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B174" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C174" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="D174" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G174" s="2">
         <v>1605571</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K174" s="7" t="str">
         <f t="shared" si="6"/>
@@ -9235,25 +9235,25 @@
     </row>
     <row r="175" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A175" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G175" s="2">
         <v>1106091</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K175" s="7" t="str">
         <f t="shared" si="6"/>
@@ -9262,25 +9262,25 @@
     </row>
     <row r="176" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A176" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G176" s="2">
         <v>1106015</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K176" s="7" t="str">
         <f t="shared" si="6"/>
@@ -9289,25 +9289,25 @@
     </row>
     <row r="177" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A177" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G177" s="2">
         <v>1256325</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K177" s="7" t="str">
         <f t="shared" si="6"/>
@@ -9319,37 +9319,37 @@
     </row>
     <row r="179" spans="1:11" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A179" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B179" s="15"/>
       <c r="C179" s="15"/>
       <c r="D179" s="15"/>
       <c r="E179" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K179" s="18"/>
     </row>
     <row r="180" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A180" s="19" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G180" s="2">
         <v>1227586</v>
       </c>
       <c r="I180" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K180" s="7" t="str">
         <f t="shared" ref="K180:K212" si="7">CONCATENATE(CONCATENATE($E180,IF(ISBLANK($E180),""," = "),$A180),IF(ISBLANK($J180),"",", "),$J180)</f>
@@ -9358,25 +9358,25 @@
     </row>
     <row r="181" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A181" s="23" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G181" s="2">
         <v>1227603</v>
       </c>
       <c r="I181" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K181" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9385,25 +9385,25 @@
     </row>
     <row r="182" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A182" s="19" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G182" s="2">
         <v>1227588</v>
       </c>
       <c r="I182" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K182" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9412,25 +9412,25 @@
     </row>
     <row r="183" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A183" s="19" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G183" s="2">
         <v>1227536</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K183" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9439,25 +9439,25 @@
     </row>
     <row r="184" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A184" s="19" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G184" s="2">
         <v>1227568</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K184" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9466,25 +9466,25 @@
     </row>
     <row r="185" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A185" s="19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G185" s="2">
         <v>1227569</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K185" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9493,25 +9493,25 @@
     </row>
     <row r="186" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A186" s="19" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G186" s="2">
         <v>1227570</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K186" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9520,25 +9520,25 @@
     </row>
     <row r="187" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A187" s="19" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G187" s="2">
         <v>1227542</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K187" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9547,25 +9547,25 @@
     </row>
     <row r="188" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A188" s="19" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G188" s="2">
         <v>1227571</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K188" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9581,7 +9581,7 @@
     </row>
     <row r="190" spans="1:11" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A190" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B190" s="15"/>
       <c r="C190" s="15"/>
@@ -9594,25 +9594,25 @@
     </row>
     <row r="191" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A191" s="19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G191" s="2">
         <v>9802231</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K191" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9621,25 +9621,25 @@
     </row>
     <row r="192" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A192" s="19" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G192" s="2">
         <v>9910760</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K192" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9648,25 +9648,25 @@
     </row>
     <row r="193" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A193" s="19" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G193" s="2">
         <v>2074974</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K193" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9681,7 +9681,7 @@
     </row>
     <row r="195" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A195" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -9696,16 +9696,16 @@
     </row>
     <row r="196" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A196" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C196" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>19</v>
@@ -9714,7 +9714,7 @@
         <v>2101811</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K196" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9723,16 +9723,16 @@
     </row>
     <row r="197" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A197" s="19" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C197" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>19</v>
@@ -9741,7 +9741,7 @@
         <v>1228215</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K197" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9750,16 +9750,16 @@
     </row>
     <row r="198" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A198" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C198" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>19</v>
@@ -9768,7 +9768,7 @@
         <v>9803971</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K198" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9785,7 +9785,7 @@
     </row>
     <row r="200" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A200" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -9800,25 +9800,25 @@
     </row>
     <row r="201" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A201" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C201" t="s">
-        <v>20</v>
+        <v>880</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G201">
-        <v>2317549</v>
+        <v>2317584</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K201" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9827,16 +9827,16 @@
     </row>
     <row r="202" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A202" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C202" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>19</v>
@@ -9845,7 +9845,7 @@
         <v>2464073</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="K202" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9854,16 +9854,16 @@
     </row>
     <row r="203" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A203" s="19" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C203" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>19</v>
@@ -9872,7 +9872,7 @@
         <v>9803980</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K203" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9904,16 +9904,16 @@
     </row>
     <row r="206" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A206" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C206" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>19</v>
@@ -9922,7 +9922,7 @@
         <v>1017687</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K206" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9931,16 +9931,16 @@
     </row>
     <row r="207" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A207" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="C207" t="s">
         <v>96</v>
       </c>
-      <c r="C207" t="s">
-        <v>97</v>
-      </c>
       <c r="D207" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>19</v>
@@ -9949,7 +9949,7 @@
         <v>8648298</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K207" s="7" t="str">
         <f t="shared" si="7"/>
@@ -9981,16 +9981,16 @@
     </row>
     <row r="210" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A210" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B210" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C210" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C210" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="D210" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>19</v>
@@ -9999,7 +9999,7 @@
         <v>9525505</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K210" s="7" t="str">
         <f t="shared" si="7"/>
@@ -10008,16 +10008,16 @@
     </row>
     <row r="211" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A211" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>19</v>
@@ -10026,7 +10026,7 @@
         <v>9846530</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K211" s="7" t="str">
         <f t="shared" si="7"/>
@@ -10041,7 +10041,7 @@
     </row>
     <row r="213" spans="1:11" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A213" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B213" s="15"/>
       <c r="C213" s="15"/>
@@ -10053,16 +10053,16 @@
     </row>
     <row r="214" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A214" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>19</v>
@@ -10071,7 +10071,7 @@
         <v>1612625</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K214" s="7" t="str">
         <f t="shared" ref="K214:K243" si="8">CONCATENATE(CONCATENATE($E214,IF(ISBLANK($E214),""," = "),$A214),IF(ISBLANK($J214),"",", "),$J214)</f>
@@ -10087,13 +10087,13 @@
     </row>
     <row r="216" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A216" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B216" s="8"/>
       <c r="C216" s="8"/>
       <c r="D216" s="8"/>
       <c r="E216" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K216" s="10" t="str">
         <f t="shared" si="8"/>
@@ -10102,25 +10102,25 @@
     </row>
     <row r="217" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A217" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G217">
         <v>1842268</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K217" s="7" t="str">
         <f t="shared" si="8"/>
@@ -10129,25 +10129,25 @@
     </row>
     <row r="218" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A218" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B218" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C218" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C218" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="D218" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G218" s="2">
         <v>1842203</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K218" s="7" t="str">
         <f t="shared" si="8"/>
@@ -10156,25 +10156,25 @@
     </row>
     <row r="219" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A219" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B219" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="C219" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G219">
         <v>1611761</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K219" s="7" t="str">
         <f t="shared" si="8"/>
@@ -10183,25 +10183,25 @@
     </row>
     <row r="220" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A220" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C220" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B220" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="D220" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G220">
         <v>2308718</v>
       </c>
       <c r="I220" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K220" s="7" t="str">
         <f t="shared" si="8"/>
@@ -10217,13 +10217,13 @@
     </row>
     <row r="222" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A222" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B222" s="8"/>
       <c r="C222" s="8"/>
       <c r="D222" s="8"/>
       <c r="E222" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K222" s="10" t="str">
         <f t="shared" si="8"/>
@@ -10232,25 +10232,25 @@
     </row>
     <row r="223" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A223" s="19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G223" s="2">
         <v>1077343</v>
       </c>
       <c r="I223" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K223" s="7" t="str">
         <f t="shared" si="8"/>
@@ -10259,25 +10259,25 @@
     </row>
     <row r="224" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A224" s="19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G224" s="2">
         <v>1103844</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K224" s="7" t="str">
         <f t="shared" si="8"/>
@@ -10286,25 +10286,25 @@
     </row>
     <row r="225" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A225" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G225" s="2">
         <v>1103845</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K225" s="7" t="str">
         <f t="shared" si="8"/>
@@ -10313,25 +10313,25 @@
     </row>
     <row r="226" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A226" s="19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G226" s="2">
         <v>1103846</v>
       </c>
       <c r="I226" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K226" s="7" t="str">
         <f t="shared" si="8"/>
@@ -10340,25 +10340,25 @@
     </row>
     <row r="227" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A227" s="19" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G227" s="2">
         <v>1103848</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="K227" s="7" t="str">
         <f t="shared" si="8"/>
@@ -10367,25 +10367,25 @@
     </row>
     <row r="228" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A228" s="19" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G228" s="2">
         <v>1103850</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K228" s="7" t="str">
         <f t="shared" si="8"/>
@@ -10394,25 +10394,25 @@
     </row>
     <row r="229" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A229" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G229" s="2">
         <v>1103852</v>
       </c>
       <c r="I229" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K229" s="7" t="str">
         <f t="shared" si="8"/>
@@ -10421,25 +10421,25 @@
     </row>
     <row r="230" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A230" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G230" s="2">
         <v>1103855</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K230" s="7" t="str">
         <f t="shared" si="8"/>
@@ -10448,25 +10448,25 @@
     </row>
     <row r="231" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A231" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G231" s="2">
         <v>1162740</v>
       </c>
       <c r="I231" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K231" s="7" t="str">
         <f t="shared" si="8"/>
@@ -10475,25 +10475,25 @@
     </row>
     <row r="232" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A232" s="19" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G232" s="2">
         <v>1176774</v>
       </c>
       <c r="I232" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K232" s="7" t="str">
         <f t="shared" si="8"/>
@@ -10502,25 +10502,25 @@
     </row>
     <row r="233" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A233" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="G233" s="27" t="s">
         <v>384</v>
       </c>
-      <c r="B233" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="G233" s="27" t="s">
+      <c r="I233" s="27" t="s">
         <v>385</v>
-      </c>
-      <c r="I233" s="27" t="s">
-        <v>386</v>
       </c>
       <c r="K233" s="7" t="str">
         <f t="shared" si="8"/>
@@ -10529,26 +10529,26 @@
     </row>
     <row r="234" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A234" s="19" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G234" s="2">
         <v>1098454</v>
       </c>
       <c r="H234" s="6"/>
       <c r="I234" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K234" s="7" t="str">
         <f t="shared" si="8"/>
@@ -10557,19 +10557,19 @@
     </row>
     <row r="235" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A235" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D235" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B235" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="E235" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G235" s="2">
         <v>1740371</v>
@@ -10584,25 +10584,25 @@
     </row>
     <row r="236" spans="1:11" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A236" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G236" s="2">
         <v>1098454</v>
       </c>
       <c r="I236" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K236" s="7" t="str">
         <f t="shared" si="8"/>
@@ -10611,25 +10611,25 @@
     </row>
     <row r="237" spans="1:11" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A237" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C237" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="B237" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C237" s="5" t="s">
-        <v>485</v>
-      </c>
       <c r="D237" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G237" s="2">
         <v>1098476</v>
       </c>
       <c r="I237" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K237" s="7" t="str">
         <f t="shared" si="8"/>
@@ -10638,25 +10638,25 @@
     </row>
     <row r="238" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G238" s="16">
         <v>1098460</v>
       </c>
       <c r="I238" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K238" s="7" t="str">
         <f t="shared" si="8"/>
@@ -10665,25 +10665,25 @@
     </row>
     <row r="239" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A239" s="19" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G239" s="16">
         <v>1056023</v>
       </c>
       <c r="I239" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K239" s="7" t="str">
         <f t="shared" si="8"/>
@@ -10692,25 +10692,25 @@
     </row>
     <row r="240" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A240" s="19" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B240" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C240" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C240" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="D240" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G240" s="2">
         <v>9728856</v>
       </c>
       <c r="I240" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K240" s="7" t="str">
         <f t="shared" si="8"/>
@@ -10719,25 +10719,25 @@
     </row>
     <row r="241" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A241" s="19" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E241" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G241" s="2">
         <v>9728880</v>
       </c>
       <c r="I241" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K241" s="7" t="str">
         <f t="shared" si="8"/>
@@ -10746,25 +10746,25 @@
     </row>
     <row r="242" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A242" s="19" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G242" s="2">
         <v>9728872</v>
       </c>
       <c r="I242" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K242" s="7" t="str">
         <f t="shared" si="8"/>
@@ -10773,25 +10773,25 @@
     </row>
     <row r="243" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A243" s="19" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G243" s="2">
         <v>8391327</v>
       </c>
       <c r="I243" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K243" s="7" t="str">
         <f t="shared" si="8"/>
@@ -10800,49 +10800,49 @@
     </row>
     <row r="244" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A244" s="19" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G244" s="2">
         <v>8391289</v>
       </c>
       <c r="I244" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K244" s="7"/>
     </row>
     <row r="245" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A245" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B245" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C245" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C245" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="D245" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G245" s="2">
         <v>1098611</v>
       </c>
       <c r="I245" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K245" s="7" t="str">
         <f t="shared" ref="K245:K270" si="9">CONCATENATE(CONCATENATE($E245,IF(ISBLANK($E245),""," = "),$A245),IF(ISBLANK($J245),"",", "),$J245)</f>
@@ -10851,25 +10851,25 @@
     </row>
     <row r="246" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A246" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="B246" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B246" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="C246" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G246" s="2">
         <v>2311129</v>
       </c>
       <c r="I246" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K246" s="7" t="str">
         <f t="shared" si="9"/>
@@ -10878,25 +10878,25 @@
     </row>
     <row r="247" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A247" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B247" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C247" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C247" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="D247" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G247" s="2">
         <v>3041440</v>
       </c>
       <c r="I247" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K247" s="7" t="str">
         <f t="shared" si="9"/>
@@ -10905,25 +10905,25 @@
     </row>
     <row r="248" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A248" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G248" s="2">
         <v>3041451</v>
       </c>
       <c r="I248" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K248" s="7" t="str">
         <f t="shared" si="9"/>
@@ -10932,25 +10932,25 @@
     </row>
     <row r="249" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A249" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G249" s="2">
         <v>1793006</v>
       </c>
       <c r="I249" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K249" s="7" t="str">
         <f t="shared" si="9"/>
@@ -10959,25 +10959,25 @@
     </row>
     <row r="250" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A250" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G250" s="2">
         <v>1793008</v>
       </c>
       <c r="I250" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K250" s="7" t="str">
         <f t="shared" si="9"/>
@@ -10986,25 +10986,25 @@
     </row>
     <row r="251" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A251" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G251" s="2">
         <v>1217037</v>
       </c>
       <c r="I251" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K251" s="7" t="str">
         <f t="shared" si="9"/>
@@ -11013,25 +11013,25 @@
     </row>
     <row r="252" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A252" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B252" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C252" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C252" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="D252" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G252" s="2">
         <v>2112381</v>
       </c>
       <c r="I252" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K252" s="7" t="str">
         <f t="shared" si="9"/>
@@ -11040,25 +11040,25 @@
     </row>
     <row r="253" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A253" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B253" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B253" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="C253" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="E253" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G253" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="I253" s="20" t="s">
         <v>490</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="E253" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G253" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="I253" s="20" t="s">
-        <v>491</v>
       </c>
       <c r="K253" s="7" t="str">
         <f t="shared" si="9"/>
@@ -11067,25 +11067,25 @@
     </row>
     <row r="254" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A254" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C254" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B254" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="D254" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G254" s="6">
         <v>2112373</v>
       </c>
       <c r="I254" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K254" s="7" t="str">
         <f t="shared" si="9"/>
@@ -11094,25 +11094,25 @@
     </row>
     <row r="255" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A255" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G255" s="2">
         <v>1217016</v>
       </c>
       <c r="I255" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K255" s="7" t="str">
         <f t="shared" si="9"/>
@@ -11121,25 +11121,25 @@
     </row>
     <row r="256" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A256" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B256" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C256" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C256" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="D256" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G256" s="2">
         <v>1267402</v>
       </c>
       <c r="I256" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K256" s="7" t="str">
         <f t="shared" si="9"/>
@@ -11148,25 +11148,25 @@
     </row>
     <row r="257" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A257" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B257" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C257" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C257" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="D257" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G257" s="2">
         <v>1849916</v>
       </c>
       <c r="I257" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K257" s="7" t="str">
         <f t="shared" si="9"/>
@@ -11181,7 +11181,7 @@
     </row>
     <row r="259" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A259" s="15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B259" s="13"/>
       <c r="C259" s="13"/>
@@ -11194,25 +11194,25 @@
     </row>
     <row r="260" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A260" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G260" s="2">
         <v>1555985</v>
       </c>
       <c r="I260" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K260" s="7" t="str">
         <f t="shared" si="9"/>
@@ -11221,25 +11221,25 @@
     </row>
     <row r="261" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A261" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G261" s="2">
         <v>1123938</v>
       </c>
       <c r="I261" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K261" s="7" t="str">
         <f t="shared" si="9"/>
@@ -11248,25 +11248,25 @@
     </row>
     <row r="262" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A262" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G262" s="2">
         <v>1123941</v>
       </c>
       <c r="I262" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K262" s="7" t="str">
         <f t="shared" si="9"/>
@@ -11275,25 +11275,25 @@
     </row>
     <row r="263" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A263" s="19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G263" s="2">
         <v>1197675</v>
       </c>
       <c r="I263" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K263" s="7" t="str">
         <f t="shared" si="9"/>
@@ -11302,25 +11302,25 @@
     </row>
     <row r="264" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A264" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G264" s="2">
         <v>1197677</v>
       </c>
       <c r="I264" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K264" s="7" t="str">
         <f t="shared" si="9"/>
@@ -11329,25 +11329,25 @@
     </row>
     <row r="265" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A265" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C265" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B265" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>430</v>
-      </c>
       <c r="D265" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G265" s="2">
         <v>2213805</v>
       </c>
       <c r="I265" s="20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K265" s="7" t="str">
         <f t="shared" si="9"/>
@@ -11356,25 +11356,25 @@
     </row>
     <row r="266" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A266" s="21" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G266" s="2">
         <v>9949887</v>
       </c>
       <c r="I266" s="20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K266" s="7" t="str">
         <f t="shared" si="9"/>
@@ -11383,25 +11383,25 @@
     </row>
     <row r="267" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A267" s="19" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G267" s="2">
         <v>1629052</v>
       </c>
       <c r="I267" s="20" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K267" s="7" t="str">
         <f t="shared" si="9"/>
@@ -11410,25 +11410,25 @@
     </row>
     <row r="268" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A268" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C268" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B268" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>435</v>
-      </c>
       <c r="D268" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G268" s="2">
         <v>2213797</v>
       </c>
       <c r="I268" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K268" s="7" t="str">
         <f t="shared" si="9"/>
@@ -11437,25 +11437,25 @@
     </row>
     <row r="269" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A269" s="19" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G269" s="2">
         <v>9949895</v>
       </c>
       <c r="I269" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K269" s="7" t="str">
         <f t="shared" si="9"/>
@@ -11464,25 +11464,25 @@
     </row>
     <row r="270" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A270" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G270" s="2">
         <v>1608374</v>
       </c>
       <c r="I270" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K270" s="7" t="str">
         <f t="shared" si="9"/>
@@ -11494,13 +11494,13 @@
     </row>
     <row r="272" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A272" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B272" s="8"/>
       <c r="C272" s="8"/>
       <c r="D272" s="8"/>
       <c r="E272" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K272" s="10" t="str">
         <f t="shared" ref="K272:K282" si="10">CONCATENATE(CONCATENATE($E272,IF(ISBLANK($E272),""," = "),$A272),IF(ISBLANK($J272),"",", "),$J272)</f>
@@ -11509,25 +11509,25 @@
     </row>
     <row r="273" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A273" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G273" s="2">
         <v>1703357</v>
       </c>
       <c r="I273" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K273" s="7" t="str">
         <f t="shared" si="10"/>
@@ -11536,25 +11536,25 @@
     </row>
     <row r="274" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A274" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G274" s="2">
         <v>1296588</v>
       </c>
       <c r="I274" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K274" s="7" t="str">
         <f t="shared" si="10"/>
@@ -11563,25 +11563,25 @@
     </row>
     <row r="275" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A275" s="19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G275" s="2">
         <v>9489460</v>
       </c>
       <c r="I275" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K275" s="7" t="str">
         <f t="shared" si="10"/>
@@ -11590,25 +11590,25 @@
     </row>
     <row r="276" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A276" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C276" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B276" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="D276" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G276" s="2">
         <v>9666095</v>
       </c>
       <c r="I276" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K276" s="7" t="str">
         <f t="shared" si="10"/>
@@ -11617,25 +11617,25 @@
     </row>
     <row r="277" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A277" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G277" s="2">
         <v>9666230</v>
       </c>
       <c r="I277" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K277" s="7" t="str">
         <f t="shared" si="10"/>
@@ -11644,25 +11644,25 @@
     </row>
     <row r="278" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A278" s="19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G278" s="2">
         <v>9666109</v>
       </c>
       <c r="I278" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K278" s="7" t="str">
         <f t="shared" si="10"/>
@@ -11671,25 +11671,25 @@
     </row>
     <row r="279" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A279" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C279" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B279" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="D279" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G279" s="2">
         <v>9666117</v>
       </c>
       <c r="I279" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K279" s="7" t="str">
         <f t="shared" si="10"/>
@@ -11698,19 +11698,19 @@
     </row>
     <row r="280" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A280" s="22" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B280" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C280" s="26" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D280" s="22" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E280" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F280" s="26"/>
       <c r="G280" s="26">
@@ -11718,7 +11718,7 @@
       </c>
       <c r="H280" s="26"/>
       <c r="I280" s="26" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="K280" s="7" t="str">
         <f t="shared" si="10"/>
@@ -11727,25 +11727,25 @@
     </row>
     <row r="281" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A281" s="19" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G281" s="2">
         <v>9488146</v>
       </c>
       <c r="I281" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K281" s="7" t="str">
         <f t="shared" si="10"/>
@@ -11754,25 +11754,25 @@
     </row>
     <row r="282" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A282" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C282" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B282" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="D282" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G282" s="2">
         <v>1211136</v>
       </c>
       <c r="I282" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K282" s="7" t="str">
         <f t="shared" si="10"/>
@@ -11781,7 +11781,7 @@
     </row>
     <row r="284" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A284" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B284" s="8"/>
       <c r="C284" s="8"/>
@@ -11794,19 +11794,19 @@
     </row>
     <row r="285" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A285" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C285" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B285" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>464</v>
-      </c>
       <c r="D285" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F285" s="2">
         <v>1</v>
@@ -11815,7 +11815,7 @@
         <v>1022402</v>
       </c>
       <c r="I285" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K285" s="7" t="str">
         <f t="shared" si="11"/>
@@ -11824,25 +11824,25 @@
     </row>
     <row r="286" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A286" s="19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B286" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C286" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C286" s="1" t="s">
-        <v>370</v>
-      </c>
       <c r="D286" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G286" s="2">
         <v>1213476</v>
       </c>
       <c r="I286" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K286" s="7" t="str">
         <f t="shared" si="11"/>
@@ -11851,25 +11851,25 @@
     </row>
     <row r="287" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A287" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G287" s="2">
         <v>1222497</v>
       </c>
       <c r="I287" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K287" s="7" t="str">
         <f t="shared" si="11"/>
@@ -11878,25 +11878,25 @@
     </row>
     <row r="288" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A288" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G288" s="2">
         <v>1213458</v>
       </c>
       <c r="I288" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K288" s="7" t="str">
         <f t="shared" si="11"/>
@@ -11905,62 +11905,62 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291" s="22" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" s="24" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B293" s="25"/>
       <c r="C293" s="25"/>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" s="19" t="s">
+        <v>873</v>
+      </c>
+      <c r="B294" s="19" t="s">
         <v>874</v>
       </c>
-      <c r="B294" s="19" t="s">
+      <c r="C294" s="19" t="s">
         <v>875</v>
-      </c>
-      <c r="C294" s="19" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B295" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="B295" s="1" t="s">
+      <c r="C295" s="1" t="s">
         <v>868</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C297" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C298" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="299" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="C299" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="K299" s="7" t="str">
         <f>CONCATENATE(CONCATENATE($E299,IF(ISBLANK($E299),""," = "),$A299),IF(ISBLANK($J299),"",", "),$J299)</f>
@@ -11969,13 +11969,13 @@
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="301" spans="1:11" ht="15" x14ac:dyDescent="0.2">
